--- a/INTLINE/data/144/SHSE/OMX Index - Weekly.xlsx
+++ b/INTLINE/data/144/SHSE/OMX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CFY3"/>
+  <dimension ref="A1:CGC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11399,15 +11399,35 @@
       </c>
       <c r="CFW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CFX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CFY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CFZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CGA1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CFX1" s="1" t="inlineStr">
+      <c r="CGB1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CFY1" s="1" t="inlineStr">
+      <c r="CGC1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -17328,19 +17348,31 @@
         <v>2119.61</v>
       </c>
       <c r="CFV2" t="n">
-        <v>2132.52</v>
-      </c>
-      <c r="CFW2" t="inlineStr">
+        <v>2131.86</v>
+      </c>
+      <c r="CFW2" t="n">
+        <v>2092.86</v>
+      </c>
+      <c r="CFX2" t="n">
+        <v>2094.94</v>
+      </c>
+      <c r="CFY2" t="n">
+        <v>2058.9</v>
+      </c>
+      <c r="CFZ2" t="n">
+        <v>2020.41</v>
+      </c>
+      <c r="CGA2" t="inlineStr">
         <is>
           <t>OMXS30</t>
         </is>
       </c>
-      <c r="CFX2" t="inlineStr">
+      <c r="CGB2" t="inlineStr">
         <is>
           <t>Stockholm OMX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="CFY2" t="inlineStr">
+      <c r="CGC2" t="inlineStr">
         <is>
           <t>Index: 1986.09.30=100</t>
         </is>
@@ -23963,19 +23995,31 @@
         <v>868.08</v>
       </c>
       <c r="CFV3" t="n">
-        <v>875.95</v>
-      </c>
-      <c r="CFW3" t="inlineStr">
+        <v>863.23</v>
+      </c>
+      <c r="CFW3" t="n">
+        <v>851.73</v>
+      </c>
+      <c r="CFX3" t="n">
+        <v>840.47</v>
+      </c>
+      <c r="CFY3" t="n">
+        <v>817.65</v>
+      </c>
+      <c r="CFZ3" t="n">
+        <v>802.3200000000001</v>
+      </c>
+      <c r="CGA3" t="inlineStr">
         <is>
           <t>OMXAFGX</t>
         </is>
       </c>
-      <c r="CFX3" t="inlineStr">
+      <c r="CGB3" t="inlineStr">
         <is>
           <t>Affarsvarlden General Index, Close Price</t>
         </is>
       </c>
-      <c r="CFY3" t="inlineStr">
+      <c r="CGC3" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>

--- a/INTLINE/data/144/SHSE/OMX Index - Weekly.xlsx
+++ b/INTLINE/data/144/SHSE/OMX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CGJ3"/>
+  <dimension ref="A1:CGK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11454,15 +11454,20 @@
       </c>
       <c r="CGH1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CGI1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CGI1" s="1" t="inlineStr">
+      <c r="CGJ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CGJ1" s="1" t="inlineStr">
+      <c r="CGK1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -17416,19 +17421,22 @@
         <v>1884.27</v>
       </c>
       <c r="CGG2" t="n">
-        <v>1895.24</v>
-      </c>
-      <c r="CGH2" t="inlineStr">
+        <v>1865.54</v>
+      </c>
+      <c r="CGH2" t="n">
+        <v>1924.84</v>
+      </c>
+      <c r="CGI2" t="inlineStr">
         <is>
           <t>OMXS30</t>
         </is>
       </c>
-      <c r="CGI2" t="inlineStr">
+      <c r="CGJ2" t="inlineStr">
         <is>
           <t>Stockholm OMX 30 Index, Close Price</t>
         </is>
       </c>
-      <c r="CGJ2" t="inlineStr">
+      <c r="CGK2" t="inlineStr">
         <is>
           <t>Index: 1986.09.30=100</t>
         </is>
@@ -24084,19 +24092,22 @@
         <v>718.79</v>
       </c>
       <c r="CGG3" t="n">
-        <v>723.84</v>
-      </c>
-      <c r="CGH3" t="inlineStr">
+        <v>709.21</v>
+      </c>
+      <c r="CGH3" t="n">
+        <v>733.02</v>
+      </c>
+      <c r="CGI3" t="inlineStr">
         <is>
           <t>OMXAFGX</t>
         </is>
       </c>
-      <c r="CGI3" t="inlineStr">
+      <c r="CGJ3" t="inlineStr">
         <is>
           <t>Affarsvarlden General Index, Close Price</t>
         </is>
       </c>
-      <c r="CGJ3" t="inlineStr">
+      <c r="CGK3" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>
